--- a/dashboards/Dashboard.xlsx
+++ b/dashboards/Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmccullough\repos\personal\investing\dashboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E96F60-D488-4A00-A1A4-FB1B6E5351EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCCF9CD-0860-4946-A055-A8CFE3660274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -103,17 +99,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -133,66 +119,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2445,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5003,18 +4929,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:M47">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J47">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>1.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
